--- a/municipal/ENG/Social Statistic/Socially Vulnerable/Samtskhe-Javakheti/Akhalkalaki.xlsx
+++ b/municipal/ENG/Social Statistic/Socially Vulnerable/Samtskhe-Javakheti/Akhalkalaki.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Social_Stat\სოციალური სტატ\სოციალურად დაუცველი პირების წილი\სამცხე-ჯავახეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\Social Statistic\Socially Vulnerable\Samtskhe-Javakheti\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,9 +25,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Share of persons receiving social package (%) in the population in Akhalkalaki</t>
-  </si>
   <si>
     <t xml:space="preserve">(at the end of the year, %)  </t>
   </si>
@@ -53,6 +50,9 @@
       </rPr>
       <t xml:space="preserve"> According to the Law of Georgia “State budget” starting from September 1st, 2012 under people receiving ,,pension" was included “Old age Pensioners” and all other people in receiving ,,social package'' group.</t>
     </r>
+  </si>
+  <si>
+    <t>Share of persons receiving social package (%) in the population in Akhalkalaki municipality</t>
   </si>
 </sst>
 </file>
@@ -209,14 +209,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -503,7 +503,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,23 +703,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="A1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -757,7 +757,7 @@
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4">
         <v>3.0102741967148745</v>
@@ -791,32 +791,32 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="A5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
